--- a/Design/DataTable/TowerStatusInfo.xlsx
+++ b/Design/DataTable/TowerStatusInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA8CE9-C6D4-4E7C-BD64-D35A029D14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840560B9-F34B-4E3E-B5C3-956C8C0BC71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2610" windowWidth="21600" windowHeight="11355" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Normal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttackSCale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,9 +104,6 @@
     <t>;공격 속도</t>
   </si>
   <si>
-    <t>;공격 범위</t>
-  </si>
-  <si>
     <t>;사거리</t>
   </si>
   <si>
@@ -228,6 +221,17 @@
   </si>
   <si>
     <t>asset&lt;UTexturte2D&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplashScale</t>
+  </si>
+  <si>
+    <t>SplashScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스플레쉬 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,17 +653,17 @@
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -674,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -692,69 +696,69 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -771,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -789,22 +793,22 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -821,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>55</v>
@@ -839,22 +843,22 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -871,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -889,22 +893,22 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -921,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
@@ -940,22 +944,22 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -972,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -991,22 +995,22 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1023,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1042,22 +1046,22 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1074,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1093,22 +1097,22 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1125,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1144,22 +1148,22 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1176,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1195,22 +1199,22 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1227,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1246,22 +1250,22 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1280,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1298,22 +1302,22 @@
         <v>4</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1332,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1351,22 +1355,22 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1385,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1404,22 +1408,22 @@
         <v>4</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1438,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1457,22 +1461,22 @@
         <v>4</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1491,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1510,22 +1514,22 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1544,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1563,22 +1567,22 @@
         <v>4</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1597,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1616,22 +1620,22 @@
         <v>4</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1650,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1669,22 +1673,22 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1703,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1722,22 +1726,22 @@
         <v>4</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1756,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1775,22 +1779,22 @@
         <v>4</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1809,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1827,22 +1831,22 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1861,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1880,22 +1884,22 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1914,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -1933,22 +1937,22 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1967,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -1986,22 +1990,22 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2020,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2039,22 +2043,22 @@
         <v>5</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2073,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2092,22 +2096,22 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2126,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2145,22 +2149,22 @@
         <v>6</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2179,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2198,22 +2202,22 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2232,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2251,22 +2255,22 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2285,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2304,22 +2308,22 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2338,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2359,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2371,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2390,10 +2394,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2412,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2424,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2443,10 +2447,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2465,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2477,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2496,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2518,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2530,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2549,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2571,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2583,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2602,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2624,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2636,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2660,10 +2664,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2679,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2687,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2695,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2703,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2719,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2727,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2735,47 +2739,47 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/TowerStatusInfo.xlsx
+++ b/Design/DataTable/TowerStatusInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840560B9-F34B-4E3E-B5C3-956C8C0BC71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271BF56-EB20-49A6-A707-A89FEC11F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Normal" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/DataTable/TowerStatusInfo.xlsx
+++ b/Design/DataTable/TowerStatusInfo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271BF56-EB20-49A6-A707-A89FEC11F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9677657-C055-4A6B-BD89-CC868040F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
-    <sheet name="!Normal" sheetId="1" r:id="rId1"/>
-    <sheet name="NormalDesc" sheetId="2" r:id="rId2"/>
+    <sheet name="!NormalTower" sheetId="1" r:id="rId1"/>
+    <sheet name="NormalTowerDesc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -256,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +326,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +666,7 @@
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
@@ -695,7 +707,7 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -745,7 +757,7 @@
       <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -795,7 +807,7 @@
       <c r="K3">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>5</v>
       </c>
       <c r="M3">
@@ -845,7 +857,7 @@
       <c r="K4">
         <v>7</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>7</v>
       </c>
       <c r="M4">
@@ -895,7 +907,7 @@
       <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>9</v>
       </c>
       <c r="M5">
@@ -946,7 +958,7 @@
       <c r="K6">
         <v>7</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>11</v>
       </c>
       <c r="M6">
@@ -997,7 +1009,7 @@
       <c r="K7">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>13</v>
       </c>
       <c r="M7">
@@ -1048,7 +1060,7 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>15</v>
       </c>
       <c r="M8">
@@ -1099,7 +1111,7 @@
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>17</v>
       </c>
       <c r="M9">
@@ -1150,7 +1162,7 @@
       <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>19</v>
       </c>
       <c r="M10">
@@ -1201,7 +1213,7 @@
       <c r="K11">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>21</v>
       </c>
       <c r="M11">
@@ -1252,7 +1264,7 @@
       <c r="K12">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>23</v>
       </c>
       <c r="M12">
@@ -1304,7 +1316,7 @@
       <c r="K13">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>25</v>
       </c>
       <c r="M13">
@@ -1357,7 +1369,7 @@
       <c r="K14">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>27</v>
       </c>
       <c r="M14">
@@ -1410,7 +1422,7 @@
       <c r="K15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>29</v>
       </c>
       <c r="M15">
@@ -1463,7 +1475,7 @@
       <c r="K16">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>31</v>
       </c>
       <c r="M16">
@@ -1516,7 +1528,7 @@
       <c r="K17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>33</v>
       </c>
       <c r="M17">
@@ -1569,7 +1581,7 @@
       <c r="K18">
         <v>5</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>35</v>
       </c>
       <c r="M18">
@@ -1622,7 +1634,7 @@
       <c r="K19">
         <v>5</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>37</v>
       </c>
       <c r="M19">
@@ -1675,7 +1687,7 @@
       <c r="K20">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>39</v>
       </c>
       <c r="M20">
@@ -1728,7 +1740,7 @@
       <c r="K21">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>41</v>
       </c>
       <c r="M21">
@@ -1781,7 +1793,7 @@
       <c r="K22">
         <v>5</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>43</v>
       </c>
       <c r="M22">
@@ -1833,7 +1845,7 @@
       <c r="K23">
         <v>4</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>45</v>
       </c>
       <c r="M23">
@@ -1886,7 +1898,7 @@
       <c r="K24">
         <v>4</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>47</v>
       </c>
       <c r="M24">
@@ -1939,7 +1951,7 @@
       <c r="K25">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>49</v>
       </c>
       <c r="M25">
@@ -1992,7 +2004,7 @@
       <c r="K26">
         <v>4</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>51</v>
       </c>
       <c r="M26">
@@ -2045,7 +2057,7 @@
       <c r="K27">
         <v>4</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>53</v>
       </c>
       <c r="M27">
@@ -2098,7 +2110,7 @@
       <c r="K28">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>55</v>
       </c>
       <c r="M28">
@@ -2151,7 +2163,7 @@
       <c r="K29">
         <v>4</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>57</v>
       </c>
       <c r="M29">
@@ -2204,7 +2216,7 @@
       <c r="K30">
         <v>4</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>59</v>
       </c>
       <c r="M30">
@@ -2257,7 +2269,7 @@
       <c r="K31">
         <v>4</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>61</v>
       </c>
       <c r="M31">
@@ -2310,7 +2322,7 @@
       <c r="K32">
         <v>4</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>63</v>
       </c>
       <c r="M32">
@@ -2362,7 +2374,7 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>5</v>
       </c>
       <c r="M33">
@@ -2415,7 +2427,7 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>7</v>
       </c>
       <c r="M34">
@@ -2468,7 +2480,7 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <v>9</v>
       </c>
       <c r="M35">
@@ -2521,7 +2533,7 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="6">
         <v>11</v>
       </c>
       <c r="M36">
@@ -2574,7 +2586,7 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>13</v>
       </c>
       <c r="M37">
@@ -2627,7 +2639,7 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <v>15</v>
       </c>
       <c r="M38">
@@ -2653,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
